--- a/data/default_data.xlsx
+++ b/data/default_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wpolowniak\Documents\files\Georgia Tech Application\digital portfolio\graph-algo-streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D30EC76-1509-429A-9598-9457325688F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16F91BC-2526-4D89-ABC2-B21E6C6D25F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="699">
   <si>
     <t>node</t>
   </si>
@@ -40,174 +40,6 @@
     <t>nla</t>
   </si>
   <si>
-    <t>Undetermined if contains 81479</t>
-  </si>
-  <si>
-    <t>CPT 81479</t>
-  </si>
-  <si>
-    <t>cpt</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>81443(1)</t>
-  </si>
-  <si>
-    <t>81405(2), 81406(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81439(1)</t>
-  </si>
-  <si>
-    <t>81442(1)</t>
-  </si>
-  <si>
-    <t>81403(1), 81405(1), 81406(1), 81408(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81406(2), 81407(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81410(1), 81411(1)</t>
-  </si>
-  <si>
-    <t>81406(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81413(1), 81414(1)</t>
-  </si>
-  <si>
-    <t>81405(1), 81406(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81403(1), 81406(3), 81479(1)</t>
-  </si>
-  <si>
-    <t>81479(1)</t>
-  </si>
-  <si>
-    <t>81404(1), 81406(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81404(1), 81405(3), 81479(1)</t>
-  </si>
-  <si>
-    <t>81222(1), 81223(1), 81404(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81405(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>cpt will depend on type of hereditary cancer - per patient CPT coding(1)</t>
-  </si>
-  <si>
-    <t>81405(1), 81406(1), 81408(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81404(1), 81405(1), 81406(1), 81407(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81407(2), 81408(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81404(1), 81406(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81404(1), 81406(3), 81479(1)</t>
-  </si>
-  <si>
-    <t>81405(1), 81406(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81407(1), 81408(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81404(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81404(1), 81405(1), 81406(3), 81407(2), 81408(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81405(1), 81406(1), 81407(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81405(2), 81406(3), 81408(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81407(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81406(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81321(1), 81323(1), 81405(2), 81406(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81403(1), 81406(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81161(1), 81404(2), 81405(1), 81406(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81470(1), 81471(1)</t>
-  </si>
-  <si>
-    <t>81448(1)</t>
-  </si>
-  <si>
-    <t>81406(1), 81407(3), 81408(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81216(1), 81217(1), 81404(1), 81405(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81437(1)</t>
-  </si>
-  <si>
-    <t>81403(1), 81404(3), 81405(2), 81406(2), 81408(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81405(1), 81406(2), 81407(1)</t>
-  </si>
-  <si>
-    <t>81435(1), 81436(1)</t>
-  </si>
-  <si>
-    <t>81432(1), 81433(1)</t>
-  </si>
-  <si>
-    <t>81162(1), 81307(1), 81321(1), 81323(1), 81404(1), 81405(2), 81406(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81162(1), 81307(1), 81404(2), 81405(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81434(1)</t>
-  </si>
-  <si>
-    <t>81404(2), 81407(1), 81408(2), 81479(1)</t>
-  </si>
-  <si>
-    <t>81406(1), 81408(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81405(1), 81406(2), 81407(1), 81479(1)</t>
-  </si>
-  <si>
-    <t>81222(1), 81223(1)</t>
-  </si>
-  <si>
-    <t>Doesn't contain 81479</t>
-  </si>
-  <si>
-    <t>Contains 81479</t>
-  </si>
-  <si>
-    <t>81249(1), 81479(1)</t>
-  </si>
-  <si>
     <t>third_party_vol</t>
   </si>
   <si>
@@ -2288,9 +2120,6 @@
   </si>
   <si>
     <t>GENE1880 GENE2761 GENE2218 GENE2342 GENE983 GENE1872 GENE1223 GENE1301 GENE436 GENE1190 GENE335 GENE2500 GENE2398 GENE993 GENE2664 GENE2808 GENE1683 GENE1420 GENE576 GENE1185 GENE617 GENE2509 GENE1296 GENE315 GENE2265 GENE1923 GENE2965 GENE1280 GENE1657 GENE1972 GENE35 GENE1112 GENE1528 GENE1461 GENE179 GENE811 GENE751 GENE1001 GENE2487 GENE428 GENE1408 GENE1649 GENE976 GENE639 GENE2525 GENE2923 GENE2062 GENE2925 GENE1882 GENE2296 GENE264 GENE1883 GENE1028 GENE2029 GENE169 GENE2007 GENE340 GENE1996 GENE605 GENE1730 GENE406 GENE2355 GENE737 GENE2939 GENE1213 GENE1922 GENE651 GENE1873 GENE1388 GENE1663 GENE268 GENE595 GENE2716 GENE2356 GENE1599 GENE2286 GENE2501 GENE1428 GENE63 GENE2115 GENE542 GENE2084 GENE538 GENE2817 GENE60 GENE462 GENE3133 GENE2564 GENE1631 GENE713 GENE2718 GENE1783 GENE1457 GENE147 GENE2952 GENE1329 GENE148 GENE2792 GENE2294 GENE2903 GENE767 GENE2920 GENE1300 GENE1341 GENE1545 GENE79 GENE2962 GENE880 GENE3084 GENE386 GENE516 GENE634 GENE1510 GENE2219 GENE2902 GENE2013 GENE2431 GENE1744 GENE325 GENE569 GENE3061 GENE1532 GENE219 GENE416 GENE342 GENE2460 GENE799 GENE810 GENE579 GENE2545 GENE759 GENE2113 GENE3042 GENE58 GENE383 GENE2053 GENE1129 GENE1059 GENE1724 GENE1792 GENE1464 GENE586 GENE2361 GENE2933 GENE1777 GENE2204 GENE398 GENE2173 GENE2305 GENE9 GENE604 GENE636 GENE1624 GENE3025 GENE2216 GENE2430 GENE1427 GENE415 GENE2947 GENE2221 GENE2257 GENE3017 GENE1762 GENE1906 GENE1106 GENE1358 GENE2849 GENE2321 GENE650 GENE2729 GENE1524 GENE1012 GENE2995 GENE1916 GENE2957 GENE164 GENE98 GENE1363 GENE843 GENE3149 GENE1610 GENE1815 GENE2708 GENE2384 GENE1429 GENE2149 GENE1394 GENE2665 GENE2689 GENE2061 GENE413 GENE718 GENE1612 GENE12 GENE962 GENE2742 GENE2354 GENE1416 GENE2507 GENE1912 GENE589 GENE1782 GENE1375 GENE1236 GENE2698 GENE1455 GENE1875 GENE2974 GENE1651 GENE336 GENE392 GENE2161 GENE2953 GENE2989 GENE770 GENE1187 GENE1293 GENE2160 GENE1715 GENE2755 GENE4 GENE2396 GENE2493 GENE455 GENE1350 GENE464 GENE445 GENE2579 GENE730 GENE1493 GENE2436 GENE1090 GENE1330 GENE2406 GENE2738 GENE1238 GENE1947 GENE864 GENE1931 GENE106 GENE1595 GENE450 GENE176 GENE2122 GENE1926 GENE2554 GENE2628 GENE2240 GENE2329 GENE768 GENE3066 GENE1352 GENE348 GENE1110 GENE2196 GENE712 GENE583 GENE36 GENE1547 GENE140 GENE1517 GENE567 GENE440 GENE2449 GENE2558 GENE95 GENE2009 GENE397 GENE2480 GENE385 GENE1812 GENE1542 GENE3018 GENE2298 GENE1581 GENE966 GENE2681 GENE2318 GENE2780 GENE1529 GENE246 GENE1089 GENE1073 GENE1288 GENE1070 GENE2191 GENE612 GENE2190 GENE1371 GENE851 GENE1103 GENE2434 GENE3030 GENE2927 GENE1051 GENE658 GENE19 GENE690 GENE1644 GENE2284 GENE2307 GENE2763 GENE2104 GENE1956 GENE1502 GENE1714 GENE2529 GENE1299 GENE2852 GENE840 GENE1251 GENE1590 GENE2484 GENE175 GENE560 GENE1961 GENE794 GENE858 GENE1543 GENE453 GENE124 GENE2439 GENE2489 GENE1965 GENE924 GENE2660 GENE2919 GENE1471 GENE1483 GENE1817 GENE2956 GENE1328 GENE828 GENE648 GENE2432 GENE434 GENE2082 GENE1824 GENE1694 GENE2452 GENE381 GENE1739 GENE1123 GENE2222 GENE679 GENE934 GENE849 GENE2575 GENE2568 GENE1809 GENE3072 GENE2046 GENE2081 GENE3121 GENE1884 GENE2614 GENE230 GENE2937 GENE1274 GENE2759 GENE271 GENE2669 GENE1224 GENE103 GENE1153 GENE2278 GENE2146 GENE870 GENE1343 GENE921 GENE1787 GENE1801 GENE1035 GENE1295 GENE1588 GENE2717 GENE46 GENE1970 GENE1484 GENE344 GENE544 GENE3060 GENE2157 GENE349 GENE90 GENE209 GENE1060 GENE28 GENE2383 GENE1850 GENE468 GENE212 GENE2754 GENE593 GENE1312 GENE2996 GENE3045 GENE886 GENE981 GENE645 GENE598 GENE2491 GENE2968 GENE2312 GENE961 GENE1004 GENE2997 GENE1025 GENE2274 GENE354 GENE433 GENE229 GENE2495 GENE221 GENE1005 GENE1218 GENE2020 GENE388 GENE2317 GENE2344 GENE3010 GENE508 GENE1628 GENE1915 GENE1577 GENE3081 GENE2890 GENE1566 GENE2063 GENE2511 GENE1038 GENE3085 GENE1608 GENE1242 GENE1513 GENE765 GENE2207 GENE389 GENE427 GENE1990 GENE2470 GENE352 GENE1541 GENE2050 GENE3058 GENE1248 GENE1525 GENE3122 GENE857 GENE2723 GENE2548 GENE29 GENE1655 GENE3031 GENE2576 GENE280 GENE2132 GENE3102 GENE1204 GENE2942 GENE547 GENE793 GENE2479 GENE1579 GENE2420 GENE1504 GENE112 GENE659 GENE2408 GENE341 GENE2940 GENE1800 GENE1597 GENE1620 GENE1279 GENE3083 GENE1024 GENE2834 GENE2441 GENE3129 GENE2623 GENE588 GENE779 GENE2376 GENE2459 GENE822 GENE490 GENE1598 GENE1273 GENE2327 GENE1944 GENE1010 GENE581 GENE2058 GENE2450 GENE479 GENE2241 GENE3113 GENE2612 GENE2049 GENE52 GENE1056 GENE1180 GENE677 GENE670 GENE1793 GENE367 GENE662 GENE2047 GENE1439 GENE463 GENE2315 GENE1613 GENE1975 GENE1015 GENE2649 GENE2313 GENE660 GENE897 GENE1340 GENE1374 GENE2932 GENE2256 GENE1451 GENE281 GENE2465 GENE1676 GENE801 GENE1789 GENE1285 GENE285 GENE814 GENE1874 GENE566 GENE2369 GENE1146 GENE47 GENE1758 GENE898 GENE2803 GENE3076 GENE2039 GENE3046 GENE142 GENE1177 GENE2800 GENE1099 GENE1716 GENE2048 GENE749 GENE2170 GENE861 GENE2246 GENE205 GENE92 GENE3148 GENE1722 GENE74 GENE2659 GENE1140 GENE899 GENE3024 GENE2712 GENE2528 GENE1409 GENE2640 GENE1904 GENE1036 GENE2837 GENE1548 GENE693 GENE530 GENE2040 GENE76 GENE1201 GENE2309 GENE10 GENE2632 GENE2267 GENE1759 GENE704 GENE1742 GENE925 GENE118 GENE3055 GENE3128 GENE675 GENE2419 GENE1840 GENE2502 GENE1179 GENE946 GENE2006 GENE798 GENE1527 GENE265 GENE3023 GENE2148 GENE501 GENE233 GENE199 GENE2670 GENE742 GENE254 GENE2142 GENE1643 GENE1596 GENE953 GENE395 GENE2536 GENE2751 GENE3069 GENE1391 GENE2111 GENE1098 GENE890 GENE2304 GENE1430 GENE958 GENE2167 GENE3026 GENE2001 GENE584 GENE2088 GENE1415 GENE1568 GENE2418 GENE1571 GENE1263 GENE2886 GENE1303 GENE1662 GENE2991 GENE444 GENE2145 GENE1160 GENE1235 GENE1008 GENE633 GENE2973 GENE3120 GENE243 GENE203 GENE1933 GENE537 GENE2037 GENE2981 GENE2034 GENE575 GENE2346 GENE876 GENE1247 GENE2440 GENE1148 GENE1648 GENE2866 GENE1462 GENE2025 GENE769 GENE1096 GENE1734 GENE1422 GENE2882 GENE2809 GENE1788 GENE2578 GENE3067 GENE574 GENE1816 GENE1519 GENE1907 GENE1690 GENE232 GENE2181 GENE524 GENE1116 GENE2105 GENE3109 GENE1561 GENE2347 GENE1107 GENE853 GENE1152 GENE3007 GENE261 GENE661 GENE1292 GENE2338 GENE3039 GENE2247 GENE2580 GENE2004 GENE2421 GENE1785 GENE1069 GENE96 GENE495 GENE1619 GENE2076 GENE512 GENE277 GENE3063 GENE1404 GENE1058 GENE1930 GENE2446 GENE394 GENE663 GENE1878 GENE1019 GENE241 GENE1401 GENE2255 GENE2273 GENE1699 GENE2552 GENE494 GENE1845 GENE178 GENE33 GENE231 GENE2017 GENE3140 GENE1195 GENE1837 GENE1604 GENE1178 GENE2585 GENE1982 GENE2941 GENE2641 GENE1839 GENE2647 GENE1023 GENE711 GENE2843 GENE1257 GENE1587 GENE1336 GENE311 GENE1477 GENE1917 GENE499 GENE2332 GENE947 GENE2476 GENE960 GENE2870 GENE3105 GENE1141 GENE3065 GENE877 GENE2100 GENE1632 GENE1589 GENE975 GENE2983 GENE62 GENE731 GENE66 GENE1693 GENE1717 GENE1240 GENE40 GENE1500 GENE1170 GENE1953 GENE2598 GENE1594 GENE710 GENE2127 GENE722 GENE1419 GENE1627 GENE6 GENE599 GENE1048 GENE888 GENE813 GENE3015 GENE2288 GENE2454 GENE3112 GENE2462 GENE556 GENE2719 GENE2676 GENE1554 GENE137 GENE424 GENE421 GENE2811 GENE2072 GENE2499 GENE1925 GENE1447 GENE1331 GENE2174 GENE2506 GENE2490 GENE3092 GENE2205 GENE2741 GENE110 GENE1041 GENE489 GENE2423 GENE2899 GENE2701 GENE518 GENE627 GENE1372 GENE31 GENE1080 GENE2011 GENE609 GENE1431 GENE1459 GENE1442 GENE114 GENE2768 GENE1020 GENE2114 GENE504 GENE2889 GENE491 GENE2534 GENE2180 GENE14 GENE2220 GENE2472 GENE2276 GENE2166 GENE2357 GENE126 GENE371 GENE3020 GENE988 GENE1131 GENE644 GENE2671 GENE514 GENE2130 GENE2904 GENE806 GENE2988 GENE111 GENE1167 GENE826 GENE32 GENE145 GENE2918 GENE3051 GENE3078 GENE3124 GENE2086 GENE2269 GENE2331 GENE1291 GENE73 GENE1725 GENE3057 GENE2514 GENE418 GENE2475 GENE2831 GENE2636 GENE1862 GENE1511 GENE2092 GENE1616 GENE3037 GENE2056 GENE1797 GENE1679 GENE2646 GENE517 GENE2553 GENE376 GENE2310 GENE390 GENE1117 GENE1297 GENE582 GENE1894 GENE2189 GENE1245 GENE437 GENE2863 GENE1889 GENE2891 GENE2731 GENE2065 GENE557 GENE1278 GENE2483 GENE1622 GENE688 GENE2095 GENE1465 GENE2897 GENE1304 GENE2429 GENE2078 GENE747 GENE2820 GENE771 GENE1538 GENE2978 GENE1105 GENE2610 GENE3034 GENE1832 GENE2517 GENE384 GENE1199 GENE2590 GENE2840 GENE1858 GENE922 GENE1092 GENE3022 GENE999 GENE152 GENE2928 GENE1677 GENE1345 GENE1234 GENE2094 GENE435 GENE1047 GENE1196 GENE2371 GENE105 GENE2547 GENE23 GENE1364 GENE1660 GENE2894 GENE1113 GENE2253 GENE2806 GENE1392 GENE2916 GENE790 GENE825 GENE401 GENE2226 GENE1360 GENE1981 GENE1385 GENE994 GENE502 GENE391 GENE1895 GENE2853 GENE2045 GENE2496 GENE369 GENE2027 GENE1252 GENE2692 GENE1128 GENE2498 GENE2815 GENE2613 GENE262 GENE474 GENE902 GENE1761 GENE141 GENE192 GENE1641 GENE2880 GENE992 GENE559 GENE1791 GENE2616 GENE1703 GENE467 GENE1732 GENE911 GENE2066 GENE2389 GENE2367 GENE1603 GENE2428 GENE2326 GENE1143 GENE2365 GENE1068 GENE1805 GENE2586 GENE278 GENE1537 GENE2986 GENE2250 GENE151 GENE2914 GENE1937 GENE2626 GENE1847 GENE1924 GENE1445 GENE587 GENE71 GENE878 GENE237 GENE3050 GENE146 GENE987 GENE2543 GENE2967 GENE2555 GENE781 GENE407 GENE554 GENE2179 GENE248 GENE1564 GENE484 GENE1740 GENE785 GENE2530 GENE2906 GENE1393 GENE860 GENE2683 GENE2829 GENE116 GENE410 GENE2069 GENE2154 GENE1680 GENE1463 GENE1243 GENE1667 GENE2275 GENE1863 GENE1154 GENE1769 GENE1971 GENE550 GENE2463 GENE2328 GENE2565 GENE11 GENE2963 GENE355 GENE2333 GENE2910 GENE1139 GENE1405 GENE2228 GENE1530 GENE2390 GENE2935 GENE2283 GENE585 GENE1197 GENE240 GENE1031 GENE2064 GENE2227 GENE200 GENE75 GENE689 GENE783 GENE629 GENE942 GENE889 GENE2079 GENE2106 GENE2566 GENE2635 GENE625 GENE461 GENE1323 GENE3130 GENE850 GENE430 GENE471 GENE1778 GENE2856 GENE1359 = GENE1157 GENE223 GENE1093 GENE2112 GENE832 GENE590 GENE528 GENE257 GENE533 GENE1890 GENE795 GENE2135 GENE635 GENE2883 GENE2955 GENE1749 GENE570 GENE1003 GENE3 GENE2292 GENE2518 GENE1621 GENE2178 GENE2970 GENE360 GENE1174 GENE473 GENE2756 GENE1433 GENE1943 GENE1985 GENE805 GENE7 GENE1342 GENE1230 GENE937 GENE548 GENE1055 GENE1814 GENE930 GENE167 GENE1995 GENE39 GENE791 GENE1575 GENE1865 GENE1287 GENE191 GENE1536 GENE2661 GENE552 GENE1009 GENE2714 GENE2473 GENE1437 GENE423 GENE1860 GENE2656 GENE2771 GENE30 GENE1771 GENE2437 GENE1446 GENE67 GENE2144 GENE1763 GENE936 GENE955 GENE326 GENE256 GENE1317 GENE3116 GENE1111 GENE2783 GENE1491 GENE1835 GENE2235 GENE1507 GENE1669 GENE1318 GENE2038 GENE2605 GENE2724 GENE2030 GENE2097 GENE80 GENE1231 GENE1079 GENE1828 GENE1210 GENE1275 GENE606 GENE3074 GENE2679 GENE2397 GENE1751 GENE1638 GENE2539 GENE2242 GENE2709 GENE456 GENE1425 GENE472 GENE2693 GENE1377 GENE2141 GENE2944 GENE3082 GENE600 GENE1225 GENE1810 GENE1634 GENE1546 GENE592 GENE678 GENE293 GENE1380 GENE1189 GENE1175 GENE2836 GENE2348 GENE572 GENE1796 GENE656 GENE2302 GENE419 GENE476 GENE2662 GENE1411 GENE363 GENE1934 GENE361 GENE1370 GENE2972 GENE2793 GENE337 GENE1102 GENE745 GENE778 GENE13 GENE1560 GENE1027 GENE2727 GENE734 GENE1729 GENE2512 GENE1869 GENE1506 GENE2059 GENE2117 GENE2519 GENE2054 GENE3091 GENE1050 GENE564 GENE279 GENE181 GENE2073 GENE1586 GENE1490 GENE88 GENE607 GENE216 GENE2245 GENE2881 GENE2678 GENE1030 GENE1704 GENE2556 GENE2526 GENE1237 GENE1138 GENE2617 GENE81 GENE1864 GENE2885 GENE906 GENE1831 GENE2912 GENE1261 GENE134 GENE2915 GENE101 GENE2969 GENE1311 GENE217 GENE2533 GENE2192 GENE735 GENE2260 GENE150 GENE2206 GENE1558 GENE469 GENE568 GENE986 GENE1726 GENE128 GENE2301 GENE1774 GENE827 GENE2300 GENE2410 GENE881 GENE1366 GENE816 GENE493 GENE1479 GENE1308 GENE1959 GENE129 GENE26 GENE824 GENE2211 GENE1745 GENE2845 GENE2057 GENE1728 GENE500 GENE119 GENE2262 GENE2340 GENE3079 GENE1521 GENE138 GENE3009 GENE174 GENE2083 GENE1324 GENE1149 GENE1969 GENE2075 GENE2251 GENE507 GENE695 GENE1494 GENE377 GENE839 GENE2861 GENE213 GENE716 GENE2943 GENE2120 GENE1337 GENE1908 GENE2557 GENE2087 GENE1691 GENE2285 GENE1533 GENE692 GENE1818 GENE1893 GENE1440 GENE3110 GENE1206 GENE2857 GENE784 GENE173 GENE596 GENE1327 GENE159 GENE959 GENE1505 GENE186 GENE573 GENE2631 GENE2730 GENE2116 GENE1950 GENE1449 GENE3036 GENE1326 GENE3028 GENE2516 GENE1122 GENE422 GENE1550 GENE432 GENE470 GENE249 GENE1553 GENE2399 GENE1535 GENE1983 GENE357 GENE894 GENE2486 GENE301 GENE522 GENE2876 GENE37 GENE1173 GENE1049 GENE563 GENE1856 GENE1909 GENE2926 GENE2785 GENE1756 GENE2980 GENE624 GENE2685 GENE965 GENE1265 GENE1104 GENE2377 GENE2929 GENE2424 GENE3088 GENE2604 GENE969 GENE2482 GENE1867 GENE8 GENE222 GENE1432 GENE42 GENE2680 GENE2633 GENE275 GENE3044 GENE2862 GENE807 GENE492 GENE521 GENE1067 GENE2721 GENE1458 GENE1081 GENE2824 GENE1918 GENE2156 GENE2998 GENE245 GENE2725 GENE1424 GENE1438 GENE329 GENE443 GENE2722 GENE2474 GENE1963 GENE1200 GENE1668 GENE1250 GENE665 GENE2977 GENE2200 GENE1569 GENE2469 GENE1964 GENE1181 GENE915 GENE412 GENE130 GENE2887 GENE1682 GENE2791 GENE1902 GENE1162 GENE2281 GENE1516 GENE1606 GENE728 GENE460 GENE1029 GENE558 GENE2686 GENE2091 GENE3052 GENE50 GENE907 GENE1709 GENE1670 GENE2026 GENE452 GENE2010 GENE1321 GENE466 GENE2426 GENE475 GENE113 GENE3035 GENE1646 GENE1819 GENE2966 GENE950 GENE2563 GENE2873 GENE1998 GENE402 GENE3097 GENE2202 GENE1407 GENE3049 GENE847 GENE2266 GENE1843 GENE1302 GENE1665 GENE2574 GENE123 GENE985 GENE682 GENE2601 GENE2823 GENE2648 GENE1834 GENE2374 GENE1435 GENE1091 GENE183 GENE185 GENE2703 GENE2413 GENE2634 GENE2549 GENE189 GENE2931 GENE532 GENE2570 GENE1007 GENE120 GENE2416 GENE2531 GENE1688 GENE3041 GENE1026 GENE1497 GENE1334 GENE224 GENE2766 GENE87 GENE171 GENE916 GENE1705 GENE310 GENE531 GENE1410 GENE1593 GENE1563 GENE2748 GENE686 GENE1659 GENE2874 GENE1855 GENE812 GENE1114 GENE2760 GENE300 GENE3080 GENE227 GENE1186 GENE155 GENE642 GENE1786 GENE848 GENE3048 GENE1115 GENE2319 GENE2532 GENE1854 GENE1697 GENE1390 GENE817 GENE1039 GENE1496 GENE2387 GENE59 GENE3089 GENE228 GENE2710 GENE1454 GENE1997 GENE1168 GENE756 GENE2515 GENE94 GENE935 GENE2875 GENE3104 GENE1539 GENE117 GENE2215 GENE967 GENE917 GENE1829 GENE483 GENE786 GENE511 GENE2627 GENE774 GENE927 GENE2325 GENE1322 GENE622 GENE362 GENE2234 GENE2042 GENE18 GENE1994 GENE2908 GENE699 GENE750 GENE525 GENE321 GENE1239 GENE411 GENE2213 GENE720 GENE2458 GENE952 GENE1637 GENE498 GENE1844 GENE2688 GENE1702 GENE2503 GENE2770 GENE1736 GENE1892 GENE3136 GENE676 GENE2282 GENE3118 GENE2233 GENE3053 GENE844 GENE2745 GENE48 GENE1825 GENE1268 GENE1417 GENE1768 GENE1259 GENE2133 GENE1211 GENE478 GENE1133 GENE2848 GENE2379 GENE619 GENE1232 GENE1639 GENE773 GENE1806 GENE2562 GENE439 GENE1468 GENE672 GENE2865 GENE2155 GENE775 GENE2372 GENE2535 GENE2444 GENE182 GENE2711 GENE2737 GENE2101 GENE1932 GENE1781 GENE2171 GENE1397 GENE1755 GENE323 GENE951 GENE2842 GENE258 GENE1074 GENE2335 GENE3059 GENE1592 GENE1861 GENE1955 GENE1264 GENE996 GENE2177 GENE1938 GENE43 GENE1467 GENE562 GENE1022 GENE637 GENE2254 GENE856 GENE2121 GENE1165 GENE202 GENE631 GENE2000 GENE872 GENE1999 GENE2258 GENE2753 GENE197 GENE2653 GENE3021 GENE901 GENE1509 GENE1421 GENE2031 GENE919 GENE1888 GENE1635 GENE1443 GENE2859 GENE1967 GENE1033 GENE640 GENE2922 GENE1671 GENE2740 GENE1820 GENE1574 GENE2607 GENE1684 GENE2128 GENE308 GENE215 GENE1000 GENE2044 GENE667 GENE2668 GENE2467 GENE3107 GENE723 GENE1754 GENE2225 GENE954 GENE2618 GENE3144 GENE55 GENE2289 GENE846 GENE2654 GENE1790 GENE1276 GENE2872 GENE372 GENE1948 GENE613 GENE1163 GENE400 GENE3135 GENE2807 GENE535 GENE1241 GENE1701 GENE2797 GENE2542 GENE465 GENE431 GENE2448 GENE3138 GENE1357 GENE1488 GENE2603 GENE2199 GENE3077 GENE1849 GENE883 GENE272 GENE1942 GENE1075 GENE2733 GENE2799 GENE2239 GENE425 GENE684 GENE1940 GENE1441 GENE1061 GENE703 GENE1193 GENE2272 GENE1034 GENE2175 GENE93 GENE1910 GENE2089 GENE2308 GENE2736 GENE320 GENE51 GENE127 GENE1254 GENE1945 GENE1653 GENE1551 GENE1064 GENE3002 GENE2850 GENE2223 GENE941 GENE194 GENE706 GENE1905 GENE1282 GENE1086 GENE696 GENE1492 GENE2949 GENE2728 GENE208 GENE364 GENE2068 GENE1332 GENE2775 GENE1042 GENE2080 GENE821 GENE2735 GENE1253 GENE2984 GENE1215 GENE766 GENE739 GENE2077 GENE1772 GENE2767 GENE2162 GENE2520 GENE1673 GENE2826 GENE928 GENE136 GENE1379 GENE16 GENE238 GENE1289 GENE618 GENE2779 GENE375 GENE754 GENE2293 GENE3117 GENE1182 GENE3054 GENE368 GENE2014 GENE289 GENE1752 GENE1804 GENE1555 GENE1183 GENE671 GENE956 GENE426 GENE345 GENE160 GENE482 GENE2588 GENE2107 GENE1614 GENE2137 GENE2674 GENE2012 GENE943 GENE1544 GENE1121 GENE290 GENE2203 GENE2464 GENE2835 GENE2125 GENE195 GENE2864 GENE319 GENE2832 GENE70 GENE1453 GENE107 GENE488 GENE2153 GENE1552 GENE2828 GENE83 GENE2443 GENE1711 GENE1094 GENE705 GENE2682 GENE2090 GENE1617 GENE2789 GENE1369 GENE964 GENE2270 GENE2382 GENE417 GENE1172 GENE17 GENE1503 GENE2573 GENE1403 GENE2108 GENE1097 GENE89 GENE1406 GENE2522 GENE1731 GENE565 GENE2388 GENE3033 GENE306 GENE1144 GENE1508 GENE297 GENE2801 GENE862 GENE1747 GENE626 GENE2938 GENE1246 GENE226 GENE283 GENE3027 GENE561 GENE838 GENE777 GENE2672 GENE2425 GENE594 GENE1346 GENE1540 GENE1044 GENE1664 GENE1898 GENE1063 GENE2752 GENE1795 GENE2750 GENE180 GENE2527 GENE1062 GENE207 GENE3003 GENE920 GENE545 GENE22 GENE2620 GENE3005 GENE1857 GENE2402 GENE3029 GENE57 GENE487 GENE313 GENE1784 GENE457 GENE1164 GENE1766 GENE1822 GENE2971 GENE509 GENE1520 GENE1501 GENE2776 GENE2407 GENE2445 GENE2559 GENE2946 GENE1209 GENE2804 GENE218 GENE1109 GENE334 GENE2182 GENE1727 GENE523 GENE1482 GENE1760 GENE1988 GENE753 GENE2349 GENE1753 GENE630 GENE1976 GENE1920 GENE1118 GENE2290 GENE1576 GENE1316 GENE957 GENE971 GENE1636 GENE396 GENE680 GENE1846 GENE1767 GENE99 GENE1582 GENE1368 GENE968 GENE702 GENE97 GENE253 GENE2624 GENE2158 GENE1929 GENE2821 GENE2271 GENE165 GENE251 GENE536 GENE2546 GENE454 GENE2303 GENE270 GENE38 GENE2231 GENE1626 GENE2314 GENE447 GENE1222 GENE1176 GENE2538 GENE1057 GENE1108 GENE764 GENE2360 GENE2123 GENE736 GENE3047 GENE485 GENE1348 GENE250 GENE1226 GENE1017 GENE172 GENE366 GENE1136 GENE1495 GENE2380 GENE2667 GENE2608 GENE2700 GENE2102 GENE1469 GENE1283 GENE2400 GENE1277 GENE163 GENE373 GENE972 GENE139 GENE2409 GENE2438 GENE338 GENE571 GENE2324 GENE2070 GENE2695 GENE2147 GENE3131 GENE974 GENE269 GENE685 GENE1750 GENE1570 GENE1262 GENE1939 GENE2023 GENE2851 GENE1460 GENE294 GENE683 GENE1082 GENE2169 GENE1344 GENE2758 GENE1271 GENE2451 GENE1053 GENE161 GENE210 GENE358 GENE1738 GENE2524 GENE715 GENE1941 GENE2323 GENE1698 GENE2611 GENE1281 GENE2060 GENE707 GENE1398 GENE1962 GENE995 GENE721 GENE1618 GENE2597 GENE2734 GENE2019 GENE2036 GENE2311 GENE1887 GENE1310 GENE982 GENE2043 GENE2453 GENE727 GENE681 GENE1746 GENE1681 GENE743 GENE2280 GENE2186 GENE1244 GENE1876 GENE3119 GENE2457 GENE541 GENE1046 GENE2279 GENE842 GENE1952 GENE1202 GENE2567 GENE2392 GENE1065 GENE78 GENE459 GENE1720 GENE1770 GENE1255 GENE2788 GENE1171 GENE748 GENE1979 GENE1208 GENE288 GENE2152 GENE1485 GENE910 GENE1383 GENE2560 GENE1389 GENE2508 GENE2442 GENE1382 GENE1006 GENE429 GENE2592 GENE2673 GENE1367 GENE2129 GENE343 GENE2819 GENE1125 GENE1325 GENE929 GENE2164 GENE1900 GENE905 GENE1127 GENE1987 GENE616 GENE3125 GENE2814 GENE3070 GENE2259 GENE1384 GENE1966 GENE913 GENE2976 GENE1260 GENE904 GENE2185 GENE724 GENE3090 GENE2136 GENE1045 GENE1853 GENE1135 GENE1018 GENE2165 GENE520 GENE2353 GENE2447 GENE732 GENE2008 GENE393 GENE239 GENE1305 GENE2948 GENE69 GENE1919 GENE438 GENE1448 GENE292 GENE3108 GENE1946 GENE3127 GENE2195 GENE2975 GENE1936 GENE1780 GENE2052 GENE214 GENE2781 GENE122 GENE318 GENE2757 GENE1386 GENE3139 GENE3099 GENE1361 GENE2773 GENE1486 GENE694 GENE44 GENE27 GENE1192 GENE497 GENE1284 GENE3115 GENE2370 GENE2550 GENE782 GENE800 GENE1480 GENE481 GENE2417 GENE868 GENE973 GENE1980 GENE2139 GENE82 GENE2358 GENE2287 GENE2713 GENE970 GENE1567 GENE652 GENE2888 GENE2468 GENE1877 GENE1695 GENE1605 GENE2884 GENE833 GENE1499 GENE2345 GENE1514 GENE830 GENE1362 GENE2339 GENE1365 GENE2481 GENE1951 GENE236 GENE49 GENE1072 GENE1977 GENE1191 GENE1557 GENE1708 GENE446 GENE2936 GENE1387 GENE2021 GENE740 GENE2877 GENE615 GENE2704 GENE909 GENE350 GENE1032 GENE2805 GENE3014 GENE2652 GENE2838 GENE295 GENE1355 GENE121 GENE1838 GENE2699 GENE1764 GENE1194 GENE2625 GENE2055 GENE2433 GENE1229 GENE1335 GENE797 GENE1779 GENE1661 GENE3008 GENE451 GENE632 GENE2777 GENE602 GENE1315 GENE2299 GENE1216 GENE978 GENE1585 GENE2833 GENE2622 GENE1217 GENE1928 GENE441 GENE170 GENE1256 GENE963 GENE317 GENE2404 GENE2229 GENE1258 GENE1765 GENE458 GENE1823 GENE2950 GENE1807 GENE1078 GENE1776 GENE505 GENE2818 GENE1911 GENE302 GENE1515 GENE646 GENE298 GENE815 GENE1423 GENE162 GENE884 GENE1960 GENE1124 GENE2359 GENE3142 GENE2337 GENE242 GENE3062 GENE1821 GENE2210 GENE86 GENE133 GENE2706 GENE875 GENE399 GENE2456 GENE1100 GENE891 GENE77 GENE2787 GENE534 GENE3126 GENE1512 GENE3134 GENE1466 GENE977 GENE3011 GENE2696 GENE1601 GENE803 GENE1478 GENE1101 GENE885 GENE2201 GENE156 GENE2655 GENE863 GENE1095 GENE1650 GENE2790 GENE309 GENE144 GENE2016 GENE836 GENE379 GENE2119 GENE2715 GENE741 GENE1991 GENE1487 GENE1378 GENE2951 GENE2035 GENE2599 GENE2930 GENE149 GENE3095 GENE2172 GENE1142 GENE1556 GENE762 GENE276 GENE1399 GENE666 GENE2005 GENE1591 GENE2249 GENE611 GENE2816 GENE1757 GENE2743 GENE3006 GENE2385 GENE2921 GENE990 GENE1198 GENE2844 GENE2232 GENE1381 GENE2892 GENE887 GENE2194 GENE1272 GENE1212 GENE717 GENE1836 GENE2368 GENE1169 GENE2143 GENE2795 GENE201 GENE2193 GENE543 GENE1522 GENE204 GENE2596 GENE1227 GENE939 GENE2134 GENE1885 GENE2572 GENE333 GENE2959 GENE655 GENE284 GENE1748 GENE2584 GENE2415 GENE2151 GENE2427 GENE1607 GENE2577 GENE854 GENE2909 GENE835 GENE225 GENE674 GENE2694 GENE882 GENE1066 GENE641 GENE879 GENE1706 GENE1984 GENE540 GENE2650 GENE448 GENE91 GENE923 GENE2732 GENE2183 GENE1414 GENE2917 GENE1203 GENE2591 GENE1523 GENE1184 GENE84 GENE621 GENE2600 GENE125 GENE409 GENE65 GENE20 GENE2772 GENE2510 GENE2960 GENE1978 GENE187 GENE3100 GENE859 GENE802 GENE1498 GENE291 GENE1373 GENE1678 GENE2905 GENE304 GENE68 GENE1903 GENE539 GENE1354 GENE2248 GENE2621 GENE1270 GENE408 GENE2854 GENE2684 GENE729 GENE614 GENE792 GENE1899 GENE2979 GENE3040 GENE1298 GENE339 GENE1799 GENE1395 GENE266 GENE1412 GENE808 GENE2352 GENE578 GENE2602 GENE3064 GENE1085 GENE1088 GENE405 GENE1011 GENE788 GENE2900 GENE1052 GENE1640 GENE3043 GENE3103 GENE198 GENE1773 GENE286 GENE691 GENE2774 GENE1267 GENE327 GENE252 GENE267 GENE948 GENE623 GENE1145 GENE296 GENE796 GENE628 GENE2295 GENE255 GENE991 GENE109 GENE3106 GENE2769 GENE24 GENE2362 GENE3098 GENE1859 GENE555 GENE2096 GENE527 GENE513 GENE1647 GENE2099 GENE100 GENE949 GENE2263 GENE789 GENE638 GENE2637 GENE2497 GENE820 GENE1578 GENE2316 GENE2690 GENE158 GENE234 GENE2726 GENE1615 GENE1973 GENE2351 GENE1084 GENE772 GENE931 GENE259 GENE1645 GENE382 GENE918 GENE2830 GENE2985 GENE643 GENE989 GENE41 GENE2764 GENE370 GENE1188 GENE926 GENE3013 GENE2028 GENE2118 GENE1672 GENE2098 GENE2813 GENE945 GENE1320 GENE818 GENE45 GENE287 GENE2778 GENE2537 GENE603 GENE2581 GENE2435 GENE1868 GENE900 GENE3141 GENE1347 GENE2638 GENE1803 GENE244 GENE649 GENE2913 GENE1562 GENE2784 GENE403 GENE2330 GENE2720 GENE1633 GENE1580 GENE2964 GENE893 GENE2739 GENE874 GENE2051 GENE3094 GENE865 GENE2230 GENE1733 GENE2403 GENE2187 GENE841 GENE1666 GENE115 GENE2658 GENE903 GENE2645 GENE2350 GENE1166 GENE5 GENE908 GENE2651 GENE997 GENE2343 GENE380 GENE2488 GENE477 GENE1054 GENE299 GENE912 GENE2505 GENE54 GENE1402 GENE2687 GENE2455 GENE3016 GENE1652 GENE1879 GENE154 GENE2 GENE2569 GENE2589 GENE1076 GENE1434 GENE25 GENE895 GENE2393 GENE104 GENE316 GENE809 GENE2297 GENE1021 GENE1565 GENE1559 GENE1852 GENE1833 GENE708 GENE1921 GENE2802 GENE1989 GENE365 GENE654 GENE1473 GENE1400 GENE2827 GENE1584 GENE2003 GENE3143 GENE449 GENE2024 GENE2794 GENE2705 GENE135 GENE653 GENE132 GENE549 GENE608 GENE2018 GENE1696 GENE2188 GENE2411 GENE2176 GENE2858 GENE1719 GENE61 GENE1013 GENE1002 GENE2639 GENE157 GENE1489 GENE414 GENE761 GENE2860 GENE2414 GENE1685 GENE2236 GENE1602 GENE2412 GENE1851 GENE980 GENE1126 GENE1396 GENE2544 GENE2320 GENE2644 GENE2504 GENE1968 GENE687 GENE351 GENE1813 GENE2587 GENE1351 GENE2911 GENE3019 GENE303 GENE1475 GENE1721 GENE1741 GENE2871 GENE1071 GENE2994 GENE591 GENE752 GENE673 GENE353 GENE2197 GENE2945 GENE2540 GENE2895 GENE700 GENE698 GENE871 GENE1518 GENE519 GENE668 GENE2896 GENE2492 GENE1913 GENE2594 GENE2707 GENE804 GENE1827 GENE1156 GENE1692 GENE2071 GENE85 GENE709 GENE979 GENE837 GENE2924 GENE2217 GENE1611 GENE1842 GENE1712 GENE359 GENE515 GENE2277 GENE852 GENE1353 GENE940 GENE1087 GENE193 GENE1707 GENE1811 GENE1775 GENE2477 GENE819 GENE714 GENE312 GENE2762 GENE510 GENE1249 GENE1 GENE2869 GENE933 GENE2466 GENE211 GENE2663 GENE2140 GENE2243 GENE2341 GENE1207 GENE1826 GENE1534 GENE2839 GENE2364 GENE496 GENE2867 GENE2786 GENE2494 GENE2561 GENE738 GENE2609 GENE757 GENE2224 GENE725 GENE831 GENE1735 GENE263 GENE2999 GENE1083 GENE1737 GENE1376 GENE938 GENE102 GENE2747 GENE1426 GENE2041 GENE1476 GENE3101 GENE1472 GENE2615 GENE1896 GENE404 GENE2893 GENE2825 GENE3096 GENE1609 GENE1333 GENE2252 GENE330 GENE2198 GENE1159 GENE577 GENE3038 GENE2749 GENE332 GENE1802 GENE1870 GENE1338 GENE2067 GENE3147 GENE196 GENE551 GENE1871 GENE1841 GENE314 GENE1549 GENE420 GENE2363 GENE188 GENE2879 GENE1625 GENE701 GENE331 GENE247 GENE282 GENE2868 GENE2109 GENE780 GENE3111 GENE2541 GENE1450 GENE2765 GENE34 GENE1993 GENE2461 GENE873 GENE190 GENE2471 GENE2015 GENE2796 GENE53 GENE2847 GENE274 GENE2138 GENE307 GENE719 GENE2958 GENE1897 GENE2214 GENE3145 GENE3004 GENE1583 GENE2032 GENE2841 GENE1654 GENE1319 GENE1901 GENE3001 GENE108 GENE1119 GENE15 GENE3114 GENE1269 GENE944 GENE1743 GENE2812 GENE2992 GENE2033 GENE1531 GENE1949 GENE2551 GENE1656 GENE1228 GENE143 GENE866 GENE2208 GENE1526 GENE1290 GENE2954 GENE2395 GENE1286 GENE1294 GENE1573 GENE1886 GENE2163 GENE2238 GENE131 GENE580 GENE823 GENE2675 GENE2022 GENE3123 GENE1452 GENE2630 GENE1220 GENE1130 GENE2855 GENE273 GENE1689 GENE1935 GENE374 GENE1313 GENE657 GENE1710 GENE2691 GENE2422 GENE2901 GENE2126 GENE1675 GENE168 GENE2074 GENE1474 GENE21 GENE2898 GENE2103 GENE2846 GENE1214 GENE2375 GENE2822 GENE984 GENE2810 GENE2336 GENE3137 GENE3086 GENE597 GENE56 GENE869 GENE220 GENE2002 GENE1219 GENE2168 GENE2405 GENE1077 GENE2993 GENE2485 GENE1642 GENE2744 GENE1954 GENE1040 GENE2782 GENE1848 GENE1958 GENE346 GENE758 GENE845 GENE1436 GENE610 GENE2244 GENE3132 GENE1120 GENE3056 GENE1356 GENE2386 GENE664 GENE1957 GENE480 GENE2878 GENE669 GENE892 GENE1630 GENE1470 GENE3068 GENE2798 GENE647 GENE2261 GENE526 GENE2237 GENE2401 GENE2593 GENE914 GENE3093 GENE153 GENE896 GENE1151 GENE776 GENE3073 GENE2184 GENE1221 GENE305 GENE1266 GENE1205 GENE1043 GENE1481 GENE184 GENE2702 GENE1456 GENE2381 GENE760 GENE746 GENE744 GENE1686 GENE1037 GENE3075 GENE553 GENE1158 GENE2373 GENE2322 GENE2990 GENE1150 GENE3146 GENE2391 GENE2657 GENE1830 GENE2677 GENE1155 GENE260 GENE2306 GENE601 GENE387 GENE1314 GENE2150 GENE1147 GENE1307 GENE697 GENE787 GENE2085 GENE1891 GENE1623 GENE2666 GENE1658 GENE2478 GENE1713 GENE1339 GENE2334 GENE2110 GENE1137 GENE1700 GENE867 GENE2268 GENE1233 GENE2697 GENE2124 GENE763 GENE2513 GENE442 GENE1974 GENE2212 GENE1881 GENE3032 GENE2982 GENE324 GENE1927 GENE1600 GENE1306 GENE206 GENE1134 GENE2366 GENE2583 GENE506 GENE1629 GENE2907 GENE166 GENE1718 GENE3087 GENE322 GENE2582 GENE2131 GENE1914 GENE235 GENE2595 GENE1794 GENE726 GENE503 GENE546 GENE72 GENE1132 GENE2987 GENE3071 GENE1349 GENE2521 GENE1687 GENE2619 GENE2934 GENE998 GENE2291 GENE2642 GENE1444 GENE834 GENE529 GENE64 GENE378 GENE829 GENE1723 GENE2606 GENE2093 GENE1016 GENE1014 GENE486 GENE1413 GENE755 GENE356 GENE2961 GENE328 GENE932 GENE2629 GENE347 GENE733 GENE1992 GENE2394 GENE2523 GENE1808 GENE2264 GENE177 GENE620 GENE855 GENE1866 GENE1798 GENE2209 GENE2159 GENE2746 GENE1572 GENE1309 GENE2643 GENE1161 GENE1986 GENE1674 GENE2571 GENE3000 GENE3012 GENE1418 GENE2378</t>
-  </si>
-  <si>
-    <t>tbd</t>
   </si>
 </sst>
 </file>
@@ -2355,37 +2184,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2790,11 +2598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G225" sqref="G225"/>
+      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,10 +2613,9 @@
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2819,30 +2626,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
       <c r="C2" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -2853,22 +2654,16 @@
       <c r="F2">
         <v>2450</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2879,22 +2674,16 @@
       <c r="F3">
         <v>1200</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2905,22 +2694,16 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>755</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2931,22 +2714,16 @@
       <c r="F5">
         <v>580</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
       <c r="C6" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -2957,22 +2734,16 @@
       <c r="F6">
         <v>2150</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
       <c r="C7" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="D7">
         <v>24</v>
@@ -2983,22 +2754,16 @@
       <c r="F7">
         <v>2450</v>
       </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3009,22 +2774,16 @@
       <c r="F8">
         <v>2800</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -3035,22 +2794,16 @@
       <c r="F9">
         <v>2450</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3061,22 +2814,16 @@
       <c r="F10">
         <v>1450</v>
       </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -3087,22 +2834,16 @@
       <c r="F11">
         <v>1900</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -3113,22 +2854,16 @@
       <c r="F12">
         <v>2450</v>
       </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -3139,22 +2874,16 @@
       <c r="F13">
         <v>580</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -3165,22 +2894,16 @@
       <c r="F14">
         <v>580</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3191,22 +2914,16 @@
       <c r="F15">
         <v>550</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -3217,22 +2934,16 @@
       <c r="F16">
         <v>580</v>
       </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3243,22 +2954,16 @@
       <c r="F17">
         <v>1200</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3269,22 +2974,16 @@
       <c r="F18">
         <v>900</v>
       </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3295,22 +2994,16 @@
       <c r="F19">
         <v>580</v>
       </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3321,22 +3014,16 @@
       <c r="F20">
         <v>580</v>
       </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3347,22 +3034,16 @@
       <c r="F21">
         <v>2450</v>
       </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3373,22 +3054,16 @@
       <c r="F22">
         <v>1050</v>
       </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3399,22 +3074,16 @@
       <c r="F23">
         <v>580</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -3425,22 +3094,16 @@
       <c r="F24">
         <v>2450</v>
       </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3451,22 +3114,16 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3477,22 +3134,16 @@
       <c r="F26">
         <v>2450</v>
       </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -3503,22 +3154,16 @@
       <c r="F27">
         <v>2450</v>
       </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -3529,22 +3174,16 @@
       <c r="F28">
         <v>2450</v>
       </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3555,22 +3194,16 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3581,22 +3214,16 @@
       <c r="F30">
         <v>2450</v>
       </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3607,22 +3234,16 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="D32">
         <v>24</v>
@@ -3633,22 +3254,16 @@
       <c r="F32">
         <v>2450</v>
       </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -3659,22 +3274,16 @@
       <c r="F33">
         <v>2450</v>
       </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -3685,22 +3294,16 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
-        <v>755</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3711,22 +3314,16 @@
       <c r="F35">
         <v>2450</v>
       </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3737,22 +3334,16 @@
       <c r="F36">
         <v>500</v>
       </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3763,22 +3354,16 @@
       <c r="F37">
         <v>2450</v>
       </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="D38">
         <v>56</v>
@@ -3789,22 +3374,16 @@
       <c r="F38">
         <v>2450</v>
       </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3815,22 +3394,16 @@
       <c r="F39">
         <v>2450</v>
       </c>
-      <c r="G39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -3841,22 +3414,16 @@
       <c r="F40">
         <v>2450</v>
       </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3867,22 +3434,16 @@
       <c r="F41">
         <v>2450</v>
       </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -3893,22 +3454,16 @@
       <c r="F42">
         <v>2450</v>
       </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>569</v>
+        <v>513</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3919,22 +3474,16 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -3945,22 +3494,16 @@
       <c r="F44">
         <v>2450</v>
       </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>571</v>
+        <v>515</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3971,22 +3514,16 @@
       <c r="F45">
         <v>2450</v>
       </c>
-      <c r="G45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="D46">
         <v>17</v>
@@ -3997,22 +3534,16 @@
       <c r="F46">
         <v>1200</v>
       </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4023,22 +3554,16 @@
       <c r="F47">
         <v>2450</v>
       </c>
-      <c r="G47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4049,22 +3574,16 @@
       <c r="F48">
         <v>2450</v>
       </c>
-      <c r="G48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4075,22 +3594,16 @@
       <c r="F49">
         <v>1450</v>
       </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="D50">
         <v>10</v>
@@ -4101,22 +3614,16 @@
       <c r="F50">
         <v>1500</v>
       </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -4127,22 +3634,16 @@
       <c r="F51">
         <v>2450</v>
       </c>
-      <c r="G51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -4153,22 +3654,16 @@
       <c r="F52">
         <v>2450</v>
       </c>
-      <c r="G52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="2" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>345</v>
-      </c>
-      <c r="B53" t="s">
-        <v>114</v>
-      </c>
       <c r="C53" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
       <c r="D53">
         <v>59</v>
@@ -4179,22 +3674,16 @@
       <c r="F53">
         <v>2450</v>
       </c>
-      <c r="G53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4205,22 +3694,16 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>580</v>
+        <v>524</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -4231,22 +3714,16 @@
       <c r="F55">
         <v>2450</v>
       </c>
-      <c r="G55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="D56">
         <v>6</v>
@@ -4257,22 +3734,16 @@
       <c r="F56">
         <v>2450</v>
       </c>
-      <c r="G56" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>582</v>
+        <v>526</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -4283,22 +3754,16 @@
       <c r="F57">
         <v>2450</v>
       </c>
-      <c r="G57" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="D58">
         <v>14</v>
@@ -4309,22 +3774,16 @@
       <c r="F58">
         <v>2450</v>
       </c>
-      <c r="G58" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4335,22 +3794,16 @@
       <c r="F59">
         <v>2450</v>
       </c>
-      <c r="G59" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>585</v>
+        <v>529</v>
       </c>
       <c r="D60">
         <v>75</v>
@@ -4361,22 +3814,16 @@
       <c r="F60">
         <v>2450</v>
       </c>
-      <c r="G60" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>586</v>
+        <v>530</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4387,22 +3834,16 @@
       <c r="F61">
         <v>300</v>
       </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>587</v>
+        <v>531</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4413,22 +3854,16 @@
       <c r="F62">
         <v>2450</v>
       </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>588</v>
+        <v>532</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4439,22 +3874,16 @@
       <c r="F63">
         <v>2450</v>
       </c>
-      <c r="G63" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4465,22 +3894,16 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>590</v>
+        <v>534</v>
       </c>
       <c r="D65">
         <v>6</v>
@@ -4491,22 +3914,16 @@
       <c r="F65">
         <v>2450</v>
       </c>
-      <c r="G65" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="D66">
         <v>9</v>
@@ -4517,22 +3934,16 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66" t="s">
-        <v>755</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4543,22 +3954,16 @@
       <c r="F67">
         <v>2450</v>
       </c>
-      <c r="G67" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>593</v>
+        <v>537</v>
       </c>
       <c r="D68">
         <v>14</v>
@@ -4569,22 +3974,16 @@
       <c r="F68">
         <v>2450</v>
       </c>
-      <c r="G68" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>594</v>
+        <v>538</v>
       </c>
       <c r="D69">
         <v>60</v>
@@ -4595,22 +3994,16 @@
       <c r="F69">
         <v>2450</v>
       </c>
-      <c r="G69" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -4621,22 +4014,16 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="D71">
         <v>7</v>
@@ -4647,22 +4034,16 @@
       <c r="F71">
         <v>2450</v>
       </c>
-      <c r="G71" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>597</v>
+        <v>541</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -4673,22 +4054,16 @@
       <c r="F72">
         <v>600</v>
       </c>
-      <c r="G72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -4699,22 +4074,16 @@
       <c r="F73">
         <v>2450</v>
       </c>
-      <c r="G73" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="D74">
         <v>7</v>
@@ -4725,22 +4094,16 @@
       <c r="F74">
         <v>2450</v>
       </c>
-      <c r="G74" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="D75">
         <v>20</v>
@@ -4751,22 +4114,16 @@
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="G75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>601</v>
+        <v>545</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -4777,22 +4134,16 @@
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -4803,22 +4154,16 @@
       <c r="F77">
         <v>2450</v>
       </c>
-      <c r="G77" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>603</v>
+        <v>547</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -4829,22 +4174,16 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>604</v>
+        <v>548</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -4855,22 +4194,16 @@
       <c r="F79">
         <v>2450</v>
       </c>
-      <c r="G79" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>605</v>
+        <v>549</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4881,22 +4214,16 @@
       <c r="F80">
         <v>2600</v>
       </c>
-      <c r="G80" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="D81">
         <v>7</v>
@@ -4907,22 +4234,16 @@
       <c r="F81">
         <v>2600</v>
       </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>607</v>
+        <v>551</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -4933,22 +4254,16 @@
       <c r="F82">
         <v>2450</v>
       </c>
-      <c r="G82" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4959,22 +4274,16 @@
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>609</v>
+        <v>553</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -4985,22 +4294,16 @@
       <c r="F84">
         <v>2450</v>
       </c>
-      <c r="G84" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>610</v>
+        <v>554</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -5011,22 +4314,16 @@
       <c r="F85">
         <v>2450</v>
       </c>
-      <c r="G85" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>611</v>
+        <v>555</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -5037,22 +4334,16 @@
       <c r="F86">
         <v>5700</v>
       </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
       <c r="D87">
         <v>11</v>
@@ -5063,22 +4354,16 @@
       <c r="F87">
         <v>2450</v>
       </c>
-      <c r="G87" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="B88" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>613</v>
+        <v>557</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -5089,22 +4374,16 @@
       <c r="F88">
         <v>850</v>
       </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>614</v>
+        <v>558</v>
       </c>
       <c r="D89">
         <v>8</v>
@@ -5115,22 +4394,16 @@
       <c r="F89">
         <v>1150</v>
       </c>
-      <c r="G89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>615</v>
+        <v>559</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -5141,22 +4414,16 @@
       <c r="F90">
         <v>580</v>
       </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>616</v>
+        <v>560</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -5167,22 +4434,16 @@
       <c r="F91">
         <v>2850</v>
       </c>
-      <c r="G91" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>617</v>
+        <v>561</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -5193,22 +4454,16 @@
       <c r="F92">
         <v>2450</v>
       </c>
-      <c r="G92" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>618</v>
+        <v>562</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5219,22 +4474,16 @@
       <c r="F93">
         <v>250</v>
       </c>
-      <c r="G93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="B94" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>619</v>
+        <v>563</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5245,22 +4494,16 @@
       <c r="F94">
         <v>2450</v>
       </c>
-      <c r="G94" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>620</v>
+        <v>564</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5271,22 +4514,16 @@
       <c r="F95">
         <v>2450</v>
       </c>
-      <c r="G95" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>621</v>
+        <v>565</v>
       </c>
       <c r="D96">
         <v>15</v>
@@ -5297,22 +4534,16 @@
       <c r="F96">
         <v>5150</v>
       </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="B97" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>622</v>
+        <v>566</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5323,22 +4554,16 @@
       <c r="F97">
         <v>2450</v>
       </c>
-      <c r="G97" t="s">
-        <v>9</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>623</v>
+        <v>567</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5349,22 +4574,16 @@
       <c r="F98">
         <v>2450</v>
       </c>
-      <c r="G98" t="s">
-        <v>9</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="B99" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>624</v>
+        <v>568</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5375,22 +4594,16 @@
       <c r="F99">
         <v>2450</v>
       </c>
-      <c r="G99" t="s">
-        <v>9</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5401,22 +4614,16 @@
       <c r="F100">
         <v>0</v>
       </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>626</v>
+        <v>570</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -5427,22 +4634,16 @@
       <c r="F101">
         <v>2450</v>
       </c>
-      <c r="G101" t="s">
-        <v>9</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>627</v>
+        <v>571</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5453,22 +4654,16 @@
       <c r="F102">
         <v>2450</v>
       </c>
-      <c r="G102" t="s">
-        <v>9</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>628</v>
+        <v>572</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -5479,22 +4674,16 @@
       <c r="F103">
         <v>300</v>
       </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="B104" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>629</v>
+        <v>573</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -5505,22 +4694,16 @@
       <c r="F104">
         <v>2450</v>
       </c>
-      <c r="G104" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>630</v>
+        <v>574</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5531,22 +4714,16 @@
       <c r="F105">
         <v>0</v>
       </c>
-      <c r="G105" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>631</v>
+        <v>575</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5557,22 +4734,16 @@
       <c r="F106">
         <v>1450</v>
       </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>632</v>
+        <v>576</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -5583,22 +4754,16 @@
       <c r="F107">
         <v>0</v>
       </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5609,22 +4774,16 @@
       <c r="F108">
         <v>2450</v>
       </c>
-      <c r="G108" t="s">
-        <v>9</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>634</v>
+        <v>578</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -5635,22 +4794,16 @@
       <c r="F109">
         <v>2450</v>
       </c>
-      <c r="G109" t="s">
-        <v>9</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5661,22 +4814,16 @@
       <c r="F110">
         <v>2450</v>
       </c>
-      <c r="G110" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>636</v>
+        <v>580</v>
       </c>
       <c r="D111">
         <v>9</v>
@@ -5687,22 +4834,16 @@
       <c r="F111">
         <v>2450</v>
       </c>
-      <c r="G111" t="s">
-        <v>9</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>637</v>
+        <v>581</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -5713,22 +4854,16 @@
       <c r="F112">
         <v>3500</v>
       </c>
-      <c r="G112" t="s">
-        <v>36</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -5739,22 +4874,16 @@
       <c r="F113">
         <v>850</v>
       </c>
-      <c r="G113" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5765,22 +4894,16 @@
       <c r="F114">
         <v>2450</v>
       </c>
-      <c r="G114" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>640</v>
+        <v>584</v>
       </c>
       <c r="D115">
         <v>15</v>
@@ -5791,22 +4914,16 @@
       <c r="F115">
         <v>2450</v>
       </c>
-      <c r="G115" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>641</v>
+        <v>585</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5817,22 +4934,16 @@
       <c r="F116">
         <v>2450</v>
       </c>
-      <c r="G116" t="s">
-        <v>9</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -5843,22 +4954,16 @@
       <c r="F117">
         <v>2450</v>
       </c>
-      <c r="G117" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="B118" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>643</v>
+        <v>587</v>
       </c>
       <c r="D118">
         <v>24</v>
@@ -5869,22 +4974,16 @@
       <c r="F118">
         <v>2450</v>
       </c>
-      <c r="G118" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -5895,22 +4994,16 @@
       <c r="F119">
         <v>0</v>
       </c>
-      <c r="G119" t="s">
-        <v>20</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="B120" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5921,22 +5014,16 @@
       <c r="F120">
         <v>2450</v>
       </c>
-      <c r="G120" t="s">
-        <v>9</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5947,22 +5034,16 @@
       <c r="F121">
         <v>0</v>
       </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="B122" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>647</v>
+        <v>591</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -5973,22 +5054,16 @@
       <c r="F122">
         <v>2450</v>
       </c>
-      <c r="G122" t="s">
-        <v>9</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="B123" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>648</v>
+        <v>592</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -5999,22 +5074,16 @@
       <c r="F123">
         <v>0</v>
       </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>649</v>
+        <v>593</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -6025,22 +5094,16 @@
       <c r="F124">
         <v>2450</v>
       </c>
-      <c r="G124" t="s">
-        <v>9</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="B125" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>650</v>
+        <v>594</v>
       </c>
       <c r="D125">
         <v>8</v>
@@ -6051,22 +5114,16 @@
       <c r="F125">
         <v>2450</v>
       </c>
-      <c r="G125" t="s">
-        <v>9</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="B126" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>651</v>
+        <v>595</v>
       </c>
       <c r="D126">
         <v>19</v>
@@ -6077,22 +5134,16 @@
       <c r="F126">
         <v>2450</v>
       </c>
-      <c r="G126" t="s">
-        <v>9</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="B127" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>652</v>
+        <v>596</v>
       </c>
       <c r="D127">
         <v>16</v>
@@ -6103,22 +5154,16 @@
       <c r="F127">
         <v>2450</v>
       </c>
-      <c r="G127" t="s">
-        <v>9</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="B128" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -6129,22 +5174,16 @@
       <c r="F128">
         <v>2450</v>
       </c>
-      <c r="G128" t="s">
-        <v>9</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="B129" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -6155,22 +5194,16 @@
       <c r="F129">
         <v>2450</v>
       </c>
-      <c r="G129" t="s">
-        <v>9</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>655</v>
+        <v>599</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -6181,22 +5214,16 @@
       <c r="F130">
         <v>2450</v>
       </c>
-      <c r="G130" t="s">
-        <v>9</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="B131" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>656</v>
+        <v>600</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -6207,22 +5234,16 @@
       <c r="F131">
         <v>0</v>
       </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>657</v>
+        <v>601</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6233,22 +5254,16 @@
       <c r="F132">
         <v>280</v>
       </c>
-      <c r="G132" t="s">
-        <v>38</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>658</v>
+        <v>602</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -6259,22 +5274,16 @@
       <c r="F133">
         <v>2450</v>
       </c>
-      <c r="G133" t="s">
-        <v>9</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="B134" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>659</v>
+        <v>603</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -6285,22 +5294,16 @@
       <c r="F134">
         <v>0</v>
       </c>
-      <c r="G134" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="B135" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>660</v>
+        <v>604</v>
       </c>
       <c r="D135">
         <v>6</v>
@@ -6311,22 +5314,16 @@
       <c r="F135">
         <v>2100</v>
       </c>
-      <c r="G135" t="s">
-        <v>39</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="B136" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>661</v>
+        <v>605</v>
       </c>
       <c r="D136">
         <v>8</v>
@@ -6337,22 +5334,16 @@
       <c r="F136">
         <v>2450</v>
       </c>
-      <c r="G136" t="s">
-        <v>9</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="B137" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>662</v>
+        <v>606</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -6363,22 +5354,16 @@
       <c r="F137">
         <v>900</v>
       </c>
-      <c r="G137" t="s">
-        <v>18</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>663</v>
+        <v>607</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -6389,22 +5374,16 @@
       <c r="F138">
         <v>2450</v>
       </c>
-      <c r="G138" t="s">
-        <v>9</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="B139" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>664</v>
+        <v>608</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -6415,22 +5394,16 @@
       <c r="F139">
         <v>2450</v>
       </c>
-      <c r="G139" t="s">
-        <v>9</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="B140" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>665</v>
+        <v>609</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6441,22 +5414,16 @@
       <c r="F140">
         <v>2450</v>
       </c>
-      <c r="G140" t="s">
-        <v>9</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="B141" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>666</v>
+        <v>610</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -6467,22 +5434,16 @@
       <c r="F141">
         <v>2450</v>
       </c>
-      <c r="G141" t="s">
-        <v>9</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="B142" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="C142" t="s">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="D142">
         <v>18</v>
@@ -6493,22 +5454,16 @@
       <c r="F142">
         <v>2450</v>
       </c>
-      <c r="G142" t="s">
-        <v>9</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="B143" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
-        <v>668</v>
+        <v>612</v>
       </c>
       <c r="D143">
         <v>7</v>
@@ -6519,22 +5474,16 @@
       <c r="F143">
         <v>2450</v>
       </c>
-      <c r="G143" t="s">
-        <v>9</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="B144" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>669</v>
+        <v>613</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6545,22 +5494,16 @@
       <c r="F144">
         <v>2450</v>
       </c>
-      <c r="G144" t="s">
-        <v>9</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="B145" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>670</v>
+        <v>614</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6571,22 +5514,16 @@
       <c r="F145">
         <v>2450</v>
       </c>
-      <c r="G145" t="s">
-        <v>9</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="B146" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -6597,22 +5534,16 @@
       <c r="F146">
         <v>550</v>
       </c>
-      <c r="G146" t="s">
-        <v>16</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="B147" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="C147" t="s">
-        <v>672</v>
+        <v>616</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -6623,22 +5554,16 @@
       <c r="F147">
         <v>0</v>
       </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="B148" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>673</v>
+        <v>617</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6649,22 +5574,16 @@
       <c r="F148">
         <v>0</v>
       </c>
-      <c r="G148" t="s">
-        <v>20</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="B149" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="C149" t="s">
-        <v>674</v>
+        <v>618</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6675,22 +5594,16 @@
       <c r="F149">
         <v>0</v>
       </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="B150" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="C150" t="s">
-        <v>675</v>
+        <v>619</v>
       </c>
       <c r="D150">
         <v>19</v>
@@ -6701,22 +5614,16 @@
       <c r="F150">
         <v>2450</v>
       </c>
-      <c r="G150" t="s">
-        <v>9</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="B151" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="C151" t="s">
-        <v>676</v>
+        <v>620</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6727,22 +5634,16 @@
       <c r="F151">
         <v>2450</v>
       </c>
-      <c r="G151" t="s">
-        <v>9</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="B152" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="C152" t="s">
-        <v>677</v>
+        <v>621</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -6753,22 +5654,16 @@
       <c r="F152">
         <v>2450</v>
       </c>
-      <c r="G152" t="s">
-        <v>9</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="B153" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="C153" t="s">
-        <v>678</v>
+        <v>622</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6779,22 +5674,16 @@
       <c r="F153">
         <v>2450</v>
       </c>
-      <c r="G153" t="s">
-        <v>9</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="C154" t="s">
-        <v>679</v>
+        <v>623</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -6805,22 +5694,16 @@
       <c r="F154">
         <v>0</v>
       </c>
-      <c r="G154" t="s">
-        <v>20</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>680</v>
+        <v>624</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -6831,22 +5714,16 @@
       <c r="F155">
         <v>2450</v>
       </c>
-      <c r="G155" t="s">
-        <v>9</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
       <c r="B156" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="C156" t="s">
-        <v>681</v>
+        <v>625</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -6857,22 +5734,16 @@
       <c r="F156">
         <v>580</v>
       </c>
-      <c r="G156" t="s">
-        <v>31</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
-        <v>682</v>
+        <v>626</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6883,22 +5754,16 @@
       <c r="F157">
         <v>750</v>
       </c>
-      <c r="G157" t="s">
-        <v>40</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>450</v>
+        <v>394</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="C158" t="s">
-        <v>683</v>
+        <v>627</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6909,22 +5774,16 @@
       <c r="F158">
         <v>280</v>
       </c>
-      <c r="G158" t="s">
-        <v>38</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -6935,22 +5794,16 @@
       <c r="F159">
         <v>580</v>
       </c>
-      <c r="G159" t="s">
-        <v>31</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="B160" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>685</v>
+        <v>629</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -6961,22 +5814,16 @@
       <c r="F160">
         <v>2450</v>
       </c>
-      <c r="G160" t="s">
-        <v>9</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="C161" t="s">
-        <v>686</v>
+        <v>630</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6987,22 +5834,16 @@
       <c r="F161">
         <v>2450</v>
       </c>
-      <c r="G161" t="s">
-        <v>9</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="B162" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="C162" t="s">
-        <v>687</v>
+        <v>631</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -7013,22 +5854,16 @@
       <c r="F162">
         <v>0</v>
       </c>
-      <c r="G162" t="s">
-        <v>20</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="B163" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>688</v>
+        <v>632</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -7039,22 +5874,16 @@
       <c r="F163">
         <v>280</v>
       </c>
-      <c r="G163" t="s">
-        <v>38</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="B164" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="D164">
         <v>4</v>
@@ -7065,22 +5894,16 @@
       <c r="F164">
         <v>2450</v>
       </c>
-      <c r="G164" t="s">
-        <v>9</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="B165" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C165" t="s">
-        <v>690</v>
+        <v>634</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -7091,22 +5914,16 @@
       <c r="F165">
         <v>2450</v>
       </c>
-      <c r="G165" t="s">
-        <v>9</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="B166" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>691</v>
+        <v>635</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -7117,22 +5934,16 @@
       <c r="F166">
         <v>2600</v>
       </c>
-      <c r="G166" t="s">
-        <v>26</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="B167" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>692</v>
+        <v>636</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -7143,22 +5954,16 @@
       <c r="F167">
         <v>1700</v>
       </c>
-      <c r="G167" t="s">
-        <v>41</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="B168" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C168" t="s">
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -7169,22 +5974,16 @@
       <c r="F168">
         <v>2450</v>
       </c>
-      <c r="G168" t="s">
-        <v>9</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="B169" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="C169" t="s">
-        <v>694</v>
+        <v>638</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -7195,22 +5994,16 @@
       <c r="F169">
         <v>2450</v>
       </c>
-      <c r="G169" t="s">
-        <v>9</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="B170" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="C170" t="s">
-        <v>695</v>
+        <v>639</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -7221,22 +6014,16 @@
       <c r="F170">
         <v>1850</v>
       </c>
-      <c r="G170" t="s">
-        <v>42</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="B171" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>696</v>
+        <v>640</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -7247,22 +6034,16 @@
       <c r="F171">
         <v>2450</v>
       </c>
-      <c r="G171" t="s">
-        <v>9</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="B172" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="C172" t="s">
-        <v>697</v>
+        <v>641</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -7273,22 +6054,16 @@
       <c r="F172">
         <v>2450</v>
       </c>
-      <c r="G172" t="s">
-        <v>9</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="B173" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C173" t="s">
-        <v>698</v>
+        <v>642</v>
       </c>
       <c r="D173">
         <v>29</v>
@@ -7299,22 +6074,16 @@
       <c r="F173">
         <v>2450</v>
       </c>
-      <c r="G173" t="s">
-        <v>9</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="B174" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="C174" t="s">
-        <v>699</v>
+        <v>643</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -7325,22 +6094,16 @@
       <c r="F174">
         <v>2450</v>
       </c>
-      <c r="G174" t="s">
-        <v>9</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="B175" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C175" t="s">
-        <v>700</v>
+        <v>644</v>
       </c>
       <c r="D175">
         <v>4</v>
@@ -7351,22 +6114,16 @@
       <c r="F175">
         <v>2450</v>
       </c>
-      <c r="G175" t="s">
-        <v>9</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="C176" t="s">
-        <v>701</v>
+        <v>645</v>
       </c>
       <c r="D176">
         <v>4</v>
@@ -7377,22 +6134,16 @@
       <c r="F176">
         <v>580</v>
       </c>
-      <c r="G176" t="s">
-        <v>43</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="B177" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
-        <v>702</v>
+        <v>646</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -7403,22 +6154,16 @@
       <c r="F177">
         <v>4850</v>
       </c>
-      <c r="G177" t="s">
-        <v>44</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="B178" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="C178" t="s">
-        <v>703</v>
+        <v>647</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7429,22 +6174,16 @@
       <c r="F178">
         <v>2450</v>
       </c>
-      <c r="G178" t="s">
-        <v>9</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="B179" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="C179" t="s">
-        <v>704</v>
+        <v>648</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -7455,22 +6194,16 @@
       <c r="F179">
         <v>2450</v>
       </c>
-      <c r="G179" t="s">
-        <v>9</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="B180" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="C180" t="s">
-        <v>705</v>
+        <v>649</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -7481,22 +6214,16 @@
       <c r="F180">
         <v>2450</v>
       </c>
-      <c r="G180" t="s">
-        <v>9</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
       <c r="B181" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="C181" t="s">
-        <v>706</v>
+        <v>650</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7507,22 +6234,16 @@
       <c r="F181">
         <v>2450</v>
       </c>
-      <c r="G181" t="s">
-        <v>9</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="B182" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="C182" t="s">
-        <v>707</v>
+        <v>651</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7533,22 +6254,16 @@
       <c r="F182">
         <v>2450</v>
       </c>
-      <c r="G182" t="s">
-        <v>9</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="B183" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="C183" t="s">
-        <v>708</v>
+        <v>652</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -7559,22 +6274,16 @@
       <c r="F183">
         <v>2450</v>
       </c>
-      <c r="G183" t="s">
-        <v>9</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="B184" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="C184" t="s">
-        <v>709</v>
+        <v>653</v>
       </c>
       <c r="D184">
         <v>5</v>
@@ -7585,22 +6294,16 @@
       <c r="F184">
         <v>2450</v>
       </c>
-      <c r="G184" t="s">
-        <v>9</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="B185" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
-        <v>710</v>
+        <v>654</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -7611,22 +6314,16 @@
       <c r="F185">
         <v>2450</v>
       </c>
-      <c r="G185" t="s">
-        <v>9</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="B186" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
-        <v>711</v>
+        <v>655</v>
       </c>
       <c r="D186">
         <v>50</v>
@@ -7637,22 +6334,16 @@
       <c r="F186">
         <v>2450</v>
       </c>
-      <c r="G186" t="s">
-        <v>9</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="B187" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="C187" t="s">
-        <v>698</v>
+        <v>642</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7663,22 +6354,16 @@
       <c r="F187">
         <v>0</v>
       </c>
-      <c r="G187" t="s">
-        <v>755</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
       <c r="B188" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C188" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D188">
         <v>4</v>
@@ -7689,22 +6374,16 @@
       <c r="F188">
         <v>2450</v>
       </c>
-      <c r="G188" t="s">
-        <v>9</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="B189" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="C189" t="s">
-        <v>713</v>
+        <v>657</v>
       </c>
       <c r="D189">
         <v>5</v>
@@ -7715,22 +6394,16 @@
       <c r="F189">
         <v>2450</v>
       </c>
-      <c r="G189" t="s">
-        <v>9</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="B190" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="C190" t="s">
-        <v>714</v>
+        <v>658</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -7741,22 +6414,16 @@
       <c r="F190">
         <v>2450</v>
       </c>
-      <c r="G190" t="s">
-        <v>9</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="B191" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="C191" t="s">
-        <v>715</v>
+        <v>659</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -7767,22 +6434,16 @@
       <c r="F191">
         <v>2450</v>
       </c>
-      <c r="G191" t="s">
-        <v>9</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="B192" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="C192" t="s">
-        <v>716</v>
+        <v>660</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -7793,22 +6454,16 @@
       <c r="F192">
         <v>1150</v>
       </c>
-      <c r="G192" t="s">
-        <v>45</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="B193" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="C193" t="s">
-        <v>717</v>
+        <v>661</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -7819,22 +6474,16 @@
       <c r="F193">
         <v>2450</v>
       </c>
-      <c r="G193" t="s">
-        <v>9</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="B194" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="C194" t="s">
-        <v>718</v>
+        <v>662</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7845,22 +6494,16 @@
       <c r="F194">
         <v>0</v>
       </c>
-      <c r="G194" t="s">
-        <v>20</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="B195" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="C195" t="s">
-        <v>719</v>
+        <v>663</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -7871,22 +6514,16 @@
       <c r="F195">
         <v>440</v>
       </c>
-      <c r="G195" t="s">
-        <v>46</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="B196" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>720</v>
+        <v>664</v>
       </c>
       <c r="D196">
         <v>4</v>
@@ -7897,22 +6534,16 @@
       <c r="F196">
         <v>0</v>
       </c>
-      <c r="G196" t="s">
-        <v>25</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="B197" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>721</v>
+        <v>665</v>
       </c>
       <c r="D197">
         <v>14</v>
@@ -7923,22 +6554,16 @@
       <c r="F197">
         <v>0</v>
       </c>
-      <c r="G197" t="s">
-        <v>25</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="B198" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>722</v>
+        <v>666</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -7949,22 +6574,16 @@
       <c r="F198">
         <v>4200</v>
       </c>
-      <c r="G198" t="s">
-        <v>47</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="B199" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="C199" t="s">
-        <v>723</v>
+        <v>667</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -7975,22 +6594,16 @@
       <c r="F199">
         <v>1750</v>
       </c>
-      <c r="G199" t="s">
-        <v>48</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="B200" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>724</v>
+        <v>668</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -8001,22 +6614,16 @@
       <c r="F200">
         <v>2450</v>
       </c>
-      <c r="G200" t="s">
-        <v>9</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="B201" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>725</v>
+        <v>669</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -8027,22 +6634,16 @@
       <c r="F201">
         <v>1200</v>
       </c>
-      <c r="G201" t="s">
-        <v>49</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="B202" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="D202">
         <v>6</v>
@@ -8053,22 +6654,16 @@
       <c r="F202">
         <v>0</v>
       </c>
-      <c r="G202" t="s">
-        <v>755</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="B203" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="C203" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -8079,22 +6674,16 @@
       <c r="F203">
         <v>1150</v>
       </c>
-      <c r="G203" t="s">
-        <v>50</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="B204" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="C204" t="s">
-        <v>727</v>
+        <v>671</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -8105,22 +6694,16 @@
       <c r="F204">
         <v>4200</v>
       </c>
-      <c r="G204" t="s">
-        <v>51</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="B205" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="C205" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -8131,22 +6714,16 @@
       <c r="F205">
         <v>3000</v>
       </c>
-      <c r="G205" t="s">
-        <v>52</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="B206" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="C206" t="s">
-        <v>729</v>
+        <v>673</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -8157,22 +6734,16 @@
       <c r="F206">
         <v>0</v>
       </c>
-      <c r="G206" t="s">
-        <v>755</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="B207" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="C207" t="s">
-        <v>730</v>
+        <v>674</v>
       </c>
       <c r="D207">
         <v>2</v>
@@ -8183,22 +6754,16 @@
       <c r="F207">
         <v>2450</v>
       </c>
-      <c r="G207" t="s">
-        <v>9</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="B208" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="C208" t="s">
-        <v>731</v>
+        <v>675</v>
       </c>
       <c r="D208">
         <v>8</v>
@@ -8209,22 +6774,16 @@
       <c r="F208">
         <v>2450</v>
       </c>
-      <c r="G208" t="s">
-        <v>9</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="B209" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="C209" t="s">
-        <v>732</v>
+        <v>676</v>
       </c>
       <c r="D209">
         <v>12</v>
@@ -8235,22 +6794,16 @@
       <c r="F209">
         <v>2450</v>
       </c>
-      <c r="G209" t="s">
-        <v>9</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
       <c r="B210" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="C210" t="s">
-        <v>733</v>
+        <v>677</v>
       </c>
       <c r="D210">
         <v>3</v>
@@ -8261,22 +6814,16 @@
       <c r="F210">
         <v>2450</v>
       </c>
-      <c r="G210" t="s">
-        <v>9</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="B211" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="C211" t="s">
-        <v>734</v>
+        <v>678</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -8287,22 +6834,16 @@
       <c r="F211">
         <v>0</v>
       </c>
-      <c r="G211" t="s">
-        <v>20</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="B212" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C212" t="s">
-        <v>735</v>
+        <v>679</v>
       </c>
       <c r="D212">
         <v>13</v>
@@ -8313,22 +6854,16 @@
       <c r="F212">
         <v>2450</v>
       </c>
-      <c r="G212" t="s">
-        <v>9</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="B213" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="C213" t="s">
-        <v>736</v>
+        <v>680</v>
       </c>
       <c r="D213">
         <v>11</v>
@@ -8339,22 +6874,16 @@
       <c r="F213">
         <v>2450</v>
       </c>
-      <c r="G213" t="s">
-        <v>9</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="B214" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="C214" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
       <c r="D214">
         <v>55</v>
@@ -8365,22 +6894,16 @@
       <c r="F214">
         <v>600</v>
       </c>
-      <c r="G214" t="s">
-        <v>53</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="B215" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>738</v>
+        <v>682</v>
       </c>
       <c r="D215">
         <v>2</v>
@@ -8391,22 +6914,16 @@
       <c r="F215">
         <v>600</v>
       </c>
-      <c r="G215" t="s">
-        <v>53</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="B216" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="C216" t="s">
-        <v>739</v>
+        <v>683</v>
       </c>
       <c r="D216">
         <v>5</v>
@@ -8417,22 +6934,16 @@
       <c r="F216">
         <v>2450</v>
       </c>
-      <c r="G216" t="s">
-        <v>9</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="B217" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="C217" t="s">
-        <v>740</v>
+        <v>684</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -8443,22 +6954,16 @@
       <c r="F217">
         <v>2450</v>
       </c>
-      <c r="G217" t="s">
-        <v>9</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="B218" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="C218" t="s">
-        <v>741</v>
+        <v>685</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -8469,22 +6974,16 @@
       <c r="F218">
         <v>2450</v>
       </c>
-      <c r="G218" t="s">
-        <v>9</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="B219" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="C219" t="s">
-        <v>742</v>
+        <v>686</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -8495,22 +6994,16 @@
       <c r="F219">
         <v>2450</v>
       </c>
-      <c r="G219" t="s">
-        <v>9</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="B220" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="C220" t="s">
-        <v>743</v>
+        <v>687</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -8521,22 +7014,16 @@
       <c r="F220">
         <v>5400</v>
       </c>
-      <c r="G220" t="s">
-        <v>54</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
       <c r="B221" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="C221" t="s">
-        <v>744</v>
+        <v>688</v>
       </c>
       <c r="D221">
         <v>7</v>
@@ -8547,22 +7034,16 @@
       <c r="F221">
         <v>0</v>
       </c>
-      <c r="G221" t="s">
-        <v>20</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="B222" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="C222" t="s">
-        <v>745</v>
+        <v>689</v>
       </c>
       <c r="D222">
         <v>3</v>
@@ -8573,22 +7054,16 @@
       <c r="F222">
         <v>2450</v>
       </c>
-      <c r="G222" t="s">
-        <v>9</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B223" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="C223" t="s">
-        <v>746</v>
+        <v>690</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -8599,22 +7074,16 @@
       <c r="F223">
         <v>2450</v>
       </c>
-      <c r="G223" t="s">
-        <v>9</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
       <c r="B224" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="C224" t="s">
-        <v>747</v>
+        <v>691</v>
       </c>
       <c r="D224">
         <v>3</v>
@@ -8625,22 +7094,16 @@
       <c r="F224">
         <v>2300</v>
       </c>
-      <c r="G224" t="s">
-        <v>55</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="B225" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="C225" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8651,22 +7114,16 @@
       <c r="F225">
         <v>0</v>
       </c>
-      <c r="G225" t="s">
-        <v>755</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="B226" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="C226" t="s">
-        <v>748</v>
+        <v>692</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8677,22 +7134,16 @@
       <c r="F226">
         <v>1750</v>
       </c>
-      <c r="G226" t="s">
-        <v>56</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="B227" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="C227" t="s">
-        <v>749</v>
+        <v>693</v>
       </c>
       <c r="D227">
         <v>2</v>
@@ -8703,22 +7154,16 @@
       <c r="F227">
         <v>2450</v>
       </c>
-      <c r="G227" t="s">
-        <v>9</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="B228" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="C228" t="s">
-        <v>750</v>
+        <v>694</v>
       </c>
       <c r="D228">
         <v>15</v>
@@ -8729,22 +7174,16 @@
       <c r="F228">
         <v>2450</v>
       </c>
-      <c r="G228" t="s">
-        <v>9</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="B229" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="C229" t="s">
-        <v>751</v>
+        <v>695</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -8755,22 +7194,16 @@
       <c r="F229">
         <v>2450</v>
       </c>
-      <c r="G229" t="s">
-        <v>9</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
       <c r="B230" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="C230" t="s">
-        <v>752</v>
+        <v>696</v>
       </c>
       <c r="D230">
         <v>11</v>
@@ -8781,22 +7214,16 @@
       <c r="F230">
         <v>0</v>
       </c>
-      <c r="G230" t="s">
-        <v>20</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="B231" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="C231" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8807,22 +7234,16 @@
       <c r="F231">
         <v>950</v>
       </c>
-      <c r="G231" t="s">
-        <v>57</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="B232" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="C232" t="s">
-        <v>753</v>
+        <v>697</v>
       </c>
       <c r="D232">
         <v>5</v>
@@ -8833,14 +7254,8 @@
       <c r="F232">
         <v>2450</v>
       </c>
-      <c r="G232" t="s">
-        <v>9</v>
-      </c>
-      <c r="H232" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>2</v>
       </c>
@@ -8848,7 +7263,7 @@
         <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>754</v>
+        <v>698</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8858,12 +7273,6 @@
       </c>
       <c r="F233">
         <v>0</v>
-      </c>
-      <c r="G233" t="s">
-        <v>8</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8872,21 +7281,21 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A234:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3388:C1048576 C234:C236">
-    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
